--- a/EC/Train Runs and Enforcements 2016-05-18.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-18.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="523">
   <si>
     <t>Train ID</t>
   </si>
@@ -1620,6 +1620,9 @@
   </si>
   <si>
     <t>Issues with releasing Form C; comparator issue caused comm outage</t>
+  </si>
+  <si>
+    <t>Comparator Issue</t>
   </si>
 </sst>
 </file>
@@ -2134,49 +2137,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2195,12 +2156,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14723,33 +14705,33 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V1048576">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:P140 A3:R139">
-    <cfRule type="expression" dxfId="5" priority="35">
+    <cfRule type="expression" dxfId="7" priority="35">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="6" priority="36">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q140:R140">
-    <cfRule type="expression" dxfId="10" priority="77">
+    <cfRule type="expression" dxfId="5" priority="77">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="78">
+    <cfRule type="expression" dxfId="4" priority="78">
       <formula>$O159&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14781,8 +14763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="A8:N23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17055,7 +17037,9 @@
       <c r="M48" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="N48" s="21"/>
+      <c r="N48" s="21" t="s">
+        <v>522</v>
+      </c>
       <c r="P48" s="81" t="str">
         <f>VLOOKUP(C48,'Train Runs'!$A$3:$T$248,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-18 13:03:32-0600',mode:absolute,to:'2016-05-18 13:50:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
@@ -17125,12 +17109,12 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576 P2">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:N49">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-18.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-18.xlsx
@@ -1595,9 +1595,6 @@
     <t>Form C @ Ulster</t>
   </si>
   <si>
-    <t>Disarm failed, Onboard declared unhealthy (more analysis needed)</t>
-  </si>
-  <si>
     <t>Routing at DUS 2N (signal was at STOP), train ran in ATC from DUS to 38th</t>
   </si>
   <si>
@@ -1623,6 +1620,9 @@
   </si>
   <si>
     <t>Comparator Issue</t>
+  </si>
+  <si>
+    <t>Messaging failure to 40th XWIU</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK156"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -3592,7 +3592,7 @@
         <v>274</v>
       </c>
       <c r="R13" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T13" s="74" t="str">
         <f t="shared" si="11"/>
@@ -6449,7 +6449,7 @@
         <v>274</v>
       </c>
       <c r="R47" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T47" s="74" t="str">
         <f t="shared" si="11"/>
@@ -7043,7 +7043,7 @@
         <v>274</v>
       </c>
       <c r="R54" s="62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T54" s="74" t="str">
         <f t="shared" si="11"/>
@@ -7296,7 +7296,7 @@
         <v>274</v>
       </c>
       <c r="R57" s="62" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T57" s="74" t="str">
         <f t="shared" si="11"/>
@@ -7465,7 +7465,7 @@
         <v>274</v>
       </c>
       <c r="R59" s="62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T59" s="74" t="str">
         <f t="shared" si="11"/>
@@ -7889,7 +7889,7 @@
         <v>274</v>
       </c>
       <c r="R64" s="62" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T64" s="74" t="str">
         <f t="shared" si="11"/>
@@ -14763,8 +14763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15140,7 +15140,7 @@
         <v>191</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="P8" s="81" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$3:$T$248,20,0)</f>
@@ -15714,7 +15714,7 @@
         <v>191</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P20" s="81" t="str">
         <f>VLOOKUP(C20,'Train Runs'!$A$3:$T$248,20,0)</f>
@@ -15812,7 +15812,7 @@
         <v>191</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P22" s="81" t="str">
         <f>VLOOKUP(C22,'Train Runs'!$A$3:$T$248,20,0)</f>
@@ -15861,7 +15861,7 @@
         <v>191</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P23" s="81" t="str">
         <f>VLOOKUP(C23,'Train Runs'!$A$3:$T$248,20,0)</f>
@@ -17038,7 +17038,7 @@
         <v>191</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P48" s="81" t="str">
         <f>VLOOKUP(C48,'Train Runs'!$A$3:$T$248,20,0)</f>
